--- a/data/trans_orig/P33A-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P33A-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>851897</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>821715</v>
+        <v>825825</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>875381</v>
+        <v>877689</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8211256081173294</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7920333633499073</v>
+        <v>0.7959950149422564</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8437609572834043</v>
+        <v>0.8459854888956798</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>689</v>
@@ -764,19 +764,19 @@
         <v>746707</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>713317</v>
+        <v>714607</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>779981</v>
+        <v>778943</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6715128393490389</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.641485788454594</v>
+        <v>0.642645203541512</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7014358557325433</v>
+        <v>0.7005031255991518</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1488</v>
@@ -785,19 +785,19 @@
         <v>1598604</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1558962</v>
+        <v>1552903</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1643248</v>
+        <v>1637879</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7437263731869366</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7252836062494135</v>
+        <v>0.722464726965745</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7644964270056067</v>
+        <v>0.7619983241416859</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>185578</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>162094</v>
+        <v>159786</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>215760</v>
+        <v>211650</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1788743918826706</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1562390427165958</v>
+        <v>0.1540145111043198</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2079666366500928</v>
+        <v>0.2040049850577435</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>334</v>
@@ -835,19 +835,19 @@
         <v>365270</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>331996</v>
+        <v>333034</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>398660</v>
+        <v>397370</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.328487160650961</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2985641442674568</v>
+        <v>0.299496874400848</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3585142115454056</v>
+        <v>0.3573547964584879</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>507</v>
@@ -856,19 +856,19 @@
         <v>550848</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>506204</v>
+        <v>511573</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>590490</v>
+        <v>596549</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2562736268130634</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2355035729943933</v>
+        <v>0.2380016758583141</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2747163937505866</v>
+        <v>0.2775352730342551</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>829808</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>806507</v>
+        <v>808516</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>851970</v>
+        <v>851292</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8552900812372759</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8312741177282829</v>
+        <v>0.8333449059963773</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8781336109979828</v>
+        <v>0.8774337955051577</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>759</v>
@@ -981,19 +981,19 @@
         <v>817117</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>786501</v>
+        <v>785867</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>844803</v>
+        <v>844950</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.750246336830611</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7221365012418386</v>
+        <v>0.7215545858912996</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7756668514450056</v>
+        <v>0.7758015579123932</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1538</v>
@@ -1002,19 +1002,19 @@
         <v>1646924</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1608602</v>
+        <v>1609921</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1685426</v>
+        <v>1682585</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7997351004736902</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.781125986864512</v>
+        <v>0.7817664191466384</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8184312951736242</v>
+        <v>0.8170518325980208</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>140398</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>118236</v>
+        <v>118914</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>163699</v>
+        <v>161690</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1447099187627241</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1218663890020172</v>
+        <v>0.1225662044948426</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1687258822717172</v>
+        <v>0.1666550940036227</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>256</v>
@@ -1052,19 +1052,19 @@
         <v>272014</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>244328</v>
+        <v>244181</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>302630</v>
+        <v>303264</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.249753663169389</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2243331485549945</v>
+        <v>0.2241984420876064</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2778634987581615</v>
+        <v>0.2784454141087001</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>394</v>
@@ -1073,19 +1073,19 @@
         <v>412413</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>373911</v>
+        <v>376752</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>450735</v>
+        <v>449416</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2002648995263097</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1815687048263757</v>
+        <v>0.1829481674019791</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.218874013135488</v>
+        <v>0.2182335808533615</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>750883</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>726914</v>
+        <v>726752</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>769691</v>
+        <v>770398</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8559901333379234</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8286661873534032</v>
+        <v>0.8284816378741637</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8774304590966444</v>
+        <v>0.8782370896324873</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>620</v>
@@ -1198,19 +1198,19 @@
         <v>665475</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>639993</v>
+        <v>641168</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>690327</v>
+        <v>690829</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7655124337880191</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7362001400072229</v>
+        <v>0.7375517232127389</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7941014245094012</v>
+        <v>0.7946783075063285</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1321</v>
@@ -1219,19 +1219,19 @@
         <v>1416358</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1381086</v>
+        <v>1382086</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1448350</v>
+        <v>1447983</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8109556566114837</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7907602385475639</v>
+        <v>0.7913330778388314</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8292732686781127</v>
+        <v>0.8290631840839939</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>126327</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>107519</v>
+        <v>106812</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>150296</v>
+        <v>150458</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1440098666620766</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1225695409033557</v>
+        <v>0.1217629103675126</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1713338126465971</v>
+        <v>0.1715183621258357</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>195</v>
@@ -1269,19 +1269,19 @@
         <v>203844</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>178992</v>
+        <v>178490</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>229326</v>
+        <v>228151</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2344875662119808</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2058985754905988</v>
+        <v>0.2053216924936714</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2637998599927771</v>
+        <v>0.2624482767872611</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>316</v>
@@ -1290,19 +1290,19 @@
         <v>330171</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>298179</v>
+        <v>298546</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>365443</v>
+        <v>364443</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1890443433885163</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1707267313218873</v>
+        <v>0.1709368159160061</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2092397614524361</v>
+        <v>0.2086669221611686</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>439801</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>422026</v>
+        <v>423630</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>454008</v>
+        <v>454413</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8794825478195041</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8439372377434206</v>
+        <v>0.8471439398011191</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.907892783223393</v>
+        <v>0.908701975598617</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>319</v>
@@ -1415,19 +1415,19 @@
         <v>351166</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>331690</v>
+        <v>330693</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>368321</v>
+        <v>368412</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7877930968732572</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7441014434600641</v>
+        <v>0.7418641937157973</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8262782411834088</v>
+        <v>0.8264820068116877</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>724</v>
@@ -1436,19 +1436,19 @@
         <v>790967</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>765200</v>
+        <v>766637</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>813850</v>
+        <v>814428</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8362701850560167</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8090277858507963</v>
+        <v>0.810546225059681</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8604641501143326</v>
+        <v>0.8610752607890413</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>60267</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>46060</v>
+        <v>45655</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>78042</v>
+        <v>76438</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1205174521804959</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09210721677660702</v>
+        <v>0.09129802440138302</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1560627622565794</v>
+        <v>0.1528560601988808</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>86</v>
@@ -1486,19 +1486,19 @@
         <v>94593</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>77438</v>
+        <v>77347</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>114069</v>
+        <v>115066</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2122069031267429</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1737217588165912</v>
+        <v>0.1735179931883124</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2558985565399358</v>
+        <v>0.2581358062842029</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>140</v>
@@ -1507,19 +1507,19 @@
         <v>154860</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>131977</v>
+        <v>131399</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>180627</v>
+        <v>179190</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1637298149439833</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1395358498856672</v>
+        <v>0.1389247392109586</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1909722141492036</v>
+        <v>0.189453774940319</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>2872388</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2828253</v>
+        <v>2833709</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2913745</v>
+        <v>2917199</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8485742426094119</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8355356036700091</v>
+        <v>0.837147438294664</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8607922078452931</v>
+        <v>0.8618124949943494</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2387</v>
@@ -1632,19 +1632,19 @@
         <v>2580464</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2523316</v>
+        <v>2523408</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2629255</v>
+        <v>2636412</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7338814740081046</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7176285496461454</v>
+        <v>0.7176546814587423</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.747757320165588</v>
+        <v>0.7497929414691309</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5071</v>
@@ -1653,19 +1653,19 @@
         <v>5452853</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5378508</v>
+        <v>5386105</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5519659</v>
+        <v>5514474</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7901373889385009</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7793645727725934</v>
+        <v>0.780465465920494</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7998178526622486</v>
+        <v>0.7990665142474879</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>512570</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>471213</v>
+        <v>467759</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>556705</v>
+        <v>551249</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1514257573905881</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1392077921547071</v>
+        <v>0.1381875050056508</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.164464396329991</v>
+        <v>0.1628525617053361</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>871</v>
@@ -1703,19 +1703,19 @@
         <v>935723</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>886932</v>
+        <v>879775</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>992871</v>
+        <v>992779</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2661185259918954</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2522426798344119</v>
+        <v>0.2502070585308692</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2823714503538546</v>
+        <v>0.2823453185412577</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1357</v>
@@ -1724,19 +1724,19 @@
         <v>1448292</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1381486</v>
+        <v>1386671</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1522637</v>
+        <v>1515040</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2098626110614991</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2001821473377514</v>
+        <v>0.2009334857525121</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2206354272274066</v>
+        <v>0.2195345340795059</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>912236</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>886446</v>
+        <v>883683</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>936612</v>
+        <v>936461</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.817260366329882</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7941560073808099</v>
+        <v>0.791679831207861</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8390986812661018</v>
+        <v>0.8389629547341469</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>830</v>
@@ -2089,19 +2089,19 @@
         <v>876342</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>843183</v>
+        <v>840096</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>910846</v>
+        <v>907791</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7010904129919642</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6745629230443351</v>
+        <v>0.6720930693889657</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7286941858311297</v>
+        <v>0.7262500477830798</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1695</v>
@@ -2110,19 +2110,19 @@
         <v>1788578</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1747347</v>
+        <v>1742347</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1832620</v>
+        <v>1826994</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7558918882484582</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.73846701806825</v>
+        <v>0.7363539075416849</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7745049358580363</v>
+        <v>0.7721272734260266</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>203976</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>179600</v>
+        <v>179751</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>229766</v>
+        <v>232529</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1827396336701181</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1609013187338982</v>
+        <v>0.1610370452658531</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.20584399261919</v>
+        <v>0.2083201687921389</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>349</v>
@@ -2160,19 +2160,19 @@
         <v>373628</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>339124</v>
+        <v>342179</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>406787</v>
+        <v>409874</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2989095870080358</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2713058141688705</v>
+        <v>0.2737499522169202</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3254370769556649</v>
+        <v>0.3279069306110342</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>539</v>
@@ -2181,19 +2181,19 @@
         <v>577604</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>533562</v>
+        <v>539188</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>618835</v>
+        <v>623835</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2441081117515418</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2254950641419643</v>
+        <v>0.2278727265739734</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2615329819317501</v>
+        <v>0.2636460924583151</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>771977</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>749865</v>
+        <v>751072</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>791455</v>
+        <v>790542</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8575211061143279</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8329597496354998</v>
+        <v>0.8343001359688977</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8791578514790561</v>
+        <v>0.87814348691519</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>697</v>
@@ -2306,19 +2306,19 @@
         <v>735491</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>705091</v>
+        <v>706836</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>759687</v>
+        <v>763005</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7458117050641784</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7149848108295106</v>
+        <v>0.7167545783997992</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7703468278128198</v>
+        <v>0.7737117756760068</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1445</v>
@@ -2327,19 +2327,19 @@
         <v>1507468</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1467047</v>
+        <v>1473227</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1541260</v>
+        <v>1544402</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7991223958671916</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7776946501893722</v>
+        <v>0.7809705393985307</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8170355190396217</v>
+        <v>0.818700942731221</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>128265</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>108787</v>
+        <v>109700</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>150377</v>
+        <v>149170</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1424788938856722</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1208421485209439</v>
+        <v>0.1218565130848099</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1670402503645002</v>
+        <v>0.1656998640311018</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>235</v>
@@ -2377,19 +2377,19 @@
         <v>250671</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>226475</v>
+        <v>223157</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>281071</v>
+        <v>279326</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2541882949358216</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2296531721871802</v>
+        <v>0.2262882243239934</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2850151891704895</v>
+        <v>0.2832454216002008</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>360</v>
@@ -2398,19 +2398,19 @@
         <v>378937</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>345145</v>
+        <v>342003</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>419358</v>
+        <v>413178</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2008776041328084</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1829644809603784</v>
+        <v>0.181299057268779</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2223053498106279</v>
+        <v>0.2190294606014691</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>707691</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>685121</v>
+        <v>686003</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>726495</v>
+        <v>725259</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8707083318851088</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.842938970386624</v>
+        <v>0.8440250026604196</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8938445106462065</v>
+        <v>0.8923227906936962</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>564</v>
@@ -2523,19 +2523,19 @@
         <v>598385</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>572509</v>
+        <v>573780</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>618795</v>
+        <v>617863</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7855611860976832</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7515908048857967</v>
+        <v>0.7532602245544622</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8123552562172974</v>
+        <v>0.8111328573123645</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1241</v>
@@ -2544,19 +2544,19 @@
         <v>1306076</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1272705</v>
+        <v>1275531</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1333045</v>
+        <v>1336480</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8295150226076248</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8083205599750237</v>
+        <v>0.8101157798015792</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8466437206050346</v>
+        <v>0.8488257986346496</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>105085</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>86281</v>
+        <v>87517</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>127655</v>
+        <v>126773</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1292916681148912</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1061554893537934</v>
+        <v>0.1076772093063038</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1570610296133759</v>
+        <v>0.1559749973395804</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>156</v>
@@ -2594,19 +2594,19 @@
         <v>163344</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>142934</v>
+        <v>143866</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>189220</v>
+        <v>187949</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2144388139023168</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1876447437827023</v>
+        <v>0.1888671426876355</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2484091951142033</v>
+        <v>0.2467397754455375</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>256</v>
@@ -2615,19 +2615,19 @@
         <v>268429</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>241460</v>
+        <v>238025</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>301800</v>
+        <v>298974</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1704849773923753</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1533562793949653</v>
+        <v>0.1511742013653504</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1916794400249762</v>
+        <v>0.1898842201984208</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>417992</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>399343</v>
+        <v>398519</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>435027</v>
+        <v>433099</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8295673248150987</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7925547449521542</v>
+        <v>0.790919549878059</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8633751879767482</v>
+        <v>0.859547935520437</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>331</v>
@@ -2740,19 +2740,19 @@
         <v>354266</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>332822</v>
+        <v>333643</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>372371</v>
+        <v>373593</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.734467304954435</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6900085982478728</v>
+        <v>0.6917108215926734</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7720030194523038</v>
+        <v>0.7745368463002237</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>723</v>
@@ -2761,19 +2761,19 @@
         <v>772258</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>743505</v>
+        <v>743406</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>797963</v>
+        <v>799226</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7830551013628311</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7538992834408442</v>
+        <v>0.7537990191593101</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8091194890900918</v>
+        <v>0.810399591495838</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>85876</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>68841</v>
+        <v>70769</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>104525</v>
+        <v>105349</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1704326751849013</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1366248120232509</v>
+        <v>0.1404520644795631</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2074452550478458</v>
+        <v>0.209080450121941</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>118</v>
@@ -2811,19 +2811,19 @@
         <v>128078</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>109973</v>
+        <v>108751</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>149522</v>
+        <v>148701</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2655326950455649</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2279969805476963</v>
+        <v>0.2254631536997763</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3099914017521274</v>
+        <v>0.3082891784073267</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>194</v>
@@ -2832,19 +2832,19 @@
         <v>213954</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>188249</v>
+        <v>186986</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>242707</v>
+        <v>242806</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.216944898637169</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1908805109099082</v>
+        <v>0.189600408504162</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2461007165591557</v>
+        <v>0.24620098084069</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>2809896</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2762028</v>
+        <v>2767533</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2848449</v>
+        <v>2850412</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8430281989599386</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8286668504750075</v>
+        <v>0.830318582322496</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8545950295163962</v>
+        <v>0.8551840843419124</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2422</v>
@@ -2957,19 +2957,19 @@
         <v>2564484</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2513275</v>
+        <v>2514035</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2615282</v>
+        <v>2622334</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7368772164984376</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7221630306085746</v>
+        <v>0.7223811662384126</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7514736445837817</v>
+        <v>0.7534998241695841</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5104</v>
@@ -2978,19 +2978,19 @@
         <v>5374379</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5305861</v>
+        <v>5304927</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5444525</v>
+        <v>5439389</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7888067413441705</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7787502473711534</v>
+        <v>0.7786131616706237</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7991021013472775</v>
+        <v>0.7983482920666615</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>523202</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>484649</v>
+        <v>482686</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>571070</v>
+        <v>565565</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1569718010400613</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1454049704836038</v>
+        <v>0.1448159156580877</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1713331495249924</v>
+        <v>0.1696814176775041</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>858</v>
@@ -3028,19 +3028,19 @@
         <v>915721</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>864923</v>
+        <v>857871</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>966930</v>
+        <v>966170</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2631227835015624</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2485263554162181</v>
+        <v>0.2465001758304162</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2778369693914252</v>
+        <v>0.2776188337615874</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1349</v>
@@ -3049,19 +3049,19 @@
         <v>1438924</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1368778</v>
+        <v>1373914</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1507442</v>
+        <v>1508376</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2111932586558294</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2008978986527224</v>
+        <v>0.2016517079333384</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2212497526288465</v>
+        <v>0.2213868383293762</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>354820</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>332934</v>
+        <v>333457</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>375052</v>
+        <v>375313</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7234732133962258</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.678847895981055</v>
+        <v>0.67991456258851</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.764725136474223</v>
+        <v>0.7652579519619157</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>489</v>
@@ -3414,19 +3414,19 @@
         <v>371975</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>350331</v>
+        <v>351417</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>393995</v>
+        <v>392423</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5996352893439403</v>
+        <v>0.5996352893439402</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5647449208377249</v>
+        <v>0.5664958340818098</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6351323312133563</v>
+        <v>0.6325984377198791</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>799</v>
@@ -3435,19 +3435,19 @@
         <v>726795</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>696226</v>
+        <v>693437</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>759101</v>
+        <v>753969</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.654313360356569</v>
+        <v>0.6543133603565691</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6267934533846664</v>
+        <v>0.6242821796563945</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6833976970186394</v>
+        <v>0.6787776486167367</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>135620</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>115388</v>
+        <v>115127</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>157506</v>
+        <v>156983</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2765267866037742</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2352748635257771</v>
+        <v>0.2347420480380842</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3211521040189451</v>
+        <v>0.3200854374114899</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>368</v>
@@ -3485,19 +3485,19 @@
         <v>248360</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>226340</v>
+        <v>227912</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>270004</v>
+        <v>268918</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4003647106560597</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3648676687866431</v>
+        <v>0.3674015622801209</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4352550791622752</v>
+        <v>0.4335041659181905</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>508</v>
@@ -3506,19 +3506,19 @@
         <v>383980</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>351674</v>
+        <v>356806</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>414549</v>
+        <v>417338</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3456866396434309</v>
+        <v>0.345686639643431</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3166023029813607</v>
+        <v>0.3212223513832633</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3732065466153339</v>
+        <v>0.3757178203436053</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>752541</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>723255</v>
+        <v>724582</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>777453</v>
+        <v>778375</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.7876040305453545</v>
+        <v>0.7876040305453548</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7569541940098353</v>
+        <v>0.7583428722355681</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8136771580282171</v>
+        <v>0.8146421644785932</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1086</v>
@@ -3631,19 +3631,19 @@
         <v>770376</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>744006</v>
+        <v>741959</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>796797</v>
+        <v>797430</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6937079800935692</v>
+        <v>0.693707980093569</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6699623099213945</v>
+        <v>0.6681188040270707</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7174997510010813</v>
+        <v>0.7180694985940272</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1771</v>
@@ -3652,19 +3652,19 @@
         <v>1522917</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1483674</v>
+        <v>1488984</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1559732</v>
+        <v>1558821</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7371328914296507</v>
+        <v>0.7371328914296505</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7181385443871628</v>
+        <v>0.7207087238749371</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7549526205704996</v>
+        <v>0.7545116195558318</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>202940</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>178028</v>
+        <v>177106</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>232226</v>
+        <v>230899</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2123959694546454</v>
+        <v>0.2123959694546455</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1863228419717831</v>
+        <v>0.1853578355214068</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2430458059901648</v>
+        <v>0.2416571277644319</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>514</v>
@@ -3702,19 +3702,19 @@
         <v>340143</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>313722</v>
+        <v>313089</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>366513</v>
+        <v>368560</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3062920199064308</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2825002489989185</v>
+        <v>0.2819305014059726</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3300376900786056</v>
+        <v>0.3318811959729295</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>734</v>
@@ -3723,19 +3723,19 @@
         <v>543083</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>506268</v>
+        <v>507179</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>582326</v>
+        <v>577016</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2628671085703495</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2450473794295002</v>
+        <v>0.2454883804441682</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.281861455612837</v>
+        <v>0.2792912761250628</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>909827</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>887679</v>
+        <v>887508</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>930713</v>
+        <v>931079</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8721315795128061</v>
+        <v>0.872131579512806</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8509014770670262</v>
+        <v>0.8507376975392867</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8921526523999982</v>
+        <v>0.8925030719305316</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1215</v>
@@ -3848,19 +3848,19 @@
         <v>847865</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>825465</v>
+        <v>824840</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>869042</v>
+        <v>868682</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8133648583425023</v>
+        <v>0.8133648583425024</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7918766388575137</v>
+        <v>0.7912774496038122</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8336803420841273</v>
+        <v>0.833334776852787</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2094</v>
@@ -3869,19 +3869,19 @@
         <v>1757691</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1726468</v>
+        <v>1728199</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1787443</v>
+        <v>1786238</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8427595855387452</v>
+        <v>0.8427595855387451</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8277889257427504</v>
+        <v>0.8286190101292773</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8570244699011388</v>
+        <v>0.8564467759193582</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>133395</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>112509</v>
+        <v>112143</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>155543</v>
+        <v>155714</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1278684204871941</v>
+        <v>0.127868420487194</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1078473476000016</v>
+        <v>0.1074969280694682</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1490985229329737</v>
+        <v>0.1492623024607134</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>297</v>
@@ -3919,19 +3919,19 @@
         <v>194551</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>173374</v>
+        <v>173734</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>216951</v>
+        <v>217576</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1866351416574976</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1663196579158724</v>
+        <v>0.1666652231472129</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2081233611424858</v>
+        <v>0.2087225503961878</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>444</v>
@@ -3940,19 +3940,19 @@
         <v>327947</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>298195</v>
+        <v>299400</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>359170</v>
+        <v>357439</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1572404144612551</v>
+        <v>0.157240414461255</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1429755300988613</v>
+        <v>0.1435532240806417</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1722110742572496</v>
+        <v>0.171380989870723</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>853800</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>830363</v>
+        <v>827338</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>877145</v>
+        <v>874460</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8754785336968161</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8514467241614104</v>
+        <v>0.8483450362353624</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8994158798335813</v>
+        <v>0.8966627311745882</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1058</v>
@@ -4065,19 +4065,19 @@
         <v>719383</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>696842</v>
+        <v>697976</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>739257</v>
+        <v>741966</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8019132108899173</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7767862261224384</v>
+        <v>0.7780502878813998</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8240677025535399</v>
+        <v>0.8270871273431316</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1891</v>
@@ -4086,19 +4086,19 @@
         <v>1573183</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1540169</v>
+        <v>1542482</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1604198</v>
+        <v>1602803</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8402312741397999</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8225986358764342</v>
+        <v>0.8238341017204636</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8567964530117826</v>
+        <v>0.8560515472421869</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>121438</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>98093</v>
+        <v>100778</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>144875</v>
+        <v>147900</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1245214663031839</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1005841201664187</v>
+        <v>0.1033372688254118</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1485532758385896</v>
+        <v>0.1516549637646377</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>249</v>
@@ -4136,19 +4136,19 @@
         <v>177700</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>157826</v>
+        <v>155117</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>200241</v>
+        <v>199107</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.1980867891100827</v>
+        <v>0.1980867891100826</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1759322974464602</v>
+        <v>0.1729128726568682</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2232137738775619</v>
+        <v>0.2219497121185999</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>362</v>
@@ -4157,19 +4157,19 @@
         <v>299138</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>268123</v>
+        <v>269518</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>332152</v>
+        <v>329839</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1597687258602</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1432035469882173</v>
+        <v>0.1439484527578131</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1774013641235658</v>
+        <v>0.1761658982795365</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>2870987</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2821250</v>
+        <v>2822173</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2916076</v>
+        <v>2914072</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8287159399375235</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8143592745959232</v>
+        <v>0.8146258290255074</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8417310917158919</v>
+        <v>0.8411525652118899</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3848</v>
@@ -4282,19 +4282,19 @@
         <v>2709597</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2657093</v>
+        <v>2662708</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2752616</v>
+        <v>2756542</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7382390261195318</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.723934221923683</v>
+        <v>0.7254638927263948</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7499597495793051</v>
+        <v>0.7510292185889862</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6555</v>
@@ -4303,19 +4303,19 @@
         <v>5580585</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5519466</v>
+        <v>5514755</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5656684</v>
+        <v>5641506</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.782171498823464</v>
+        <v>0.7821714988234639</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7736051099718866</v>
+        <v>0.7729448535336289</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7928374519643929</v>
+        <v>0.790710197715811</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>593393</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>548304</v>
+        <v>550308</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>643130</v>
+        <v>642207</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1712840600624766</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1582689082841084</v>
+        <v>0.1588474347881104</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.185640725404077</v>
+        <v>0.1853741709744929</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1428</v>
@@ -4353,19 +4353,19 @@
         <v>960755</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>917736</v>
+        <v>913810</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1013259</v>
+        <v>1007644</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.261760973880468</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.250040250420695</v>
+        <v>0.2489707814110137</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2760657780763171</v>
+        <v>0.2745361072736053</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2048</v>
@@ -4374,19 +4374,19 @@
         <v>1554148</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1478049</v>
+        <v>1493227</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1615267</v>
+        <v>1619978</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.217828501176536</v>
+        <v>0.2178285011765359</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2071625480356071</v>
+        <v>0.209289802284189</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2263948900281133</v>
+        <v>0.2270551464663711</v>
       </c>
     </row>
     <row r="18">
